--- a/SEROFOI/data frame/col_HPV16_summary.xlsx
+++ b/SEROFOI/data frame/col_HPV16_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\data frame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2229EDBA-B5B2-48ED-A198-41CE776CF4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645DC3D0-95D3-44E2-8CB1-4AA1F0BE642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,13 +153,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,36 +458,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.5546875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="6" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2"/>
@@ -499,7 +502,7 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1">
@@ -510,7 +513,6 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -534,7 +536,6 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -550,7 +551,6 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -566,7 +566,6 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -586,10 +585,9 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SEROFOI/data frame/col_HPV16_summary.xlsx
+++ b/SEROFOI/data frame/col_HPV16_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\data frame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645DC3D0-95D3-44E2-8CB1-4AA1F0BE642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A03673-4C2A-4BE9-9FF7-9C36B30BEC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <t>constant_no_seroreversion</t>
   </si>
   <si>
-    <t>-53.2(se=7.9)</t>
+    <t>-52.9(se=7.9)</t>
   </si>
   <si>
     <t>0.0048(95% CI, 0.0042-0.0055)</t>
@@ -58,25 +58,25 @@
     <t>constant_seroreversion</t>
   </si>
   <si>
-    <t>-24.2(se=2.8)</t>
-  </si>
-  <si>
-    <t>0.28(95% CI, 0.083-0.42)</t>
-  </si>
-  <si>
-    <t>1.4(95% CI, 0.41-2)</t>
+    <t>-24.3(se=2.8)</t>
+  </si>
+  <si>
+    <t>0.28(95% CI, 0.095-0.42)</t>
+  </si>
+  <si>
+    <t>1.4(95% CI, 0.48-2)</t>
   </si>
   <si>
     <t>time_no_seroreversion</t>
   </si>
   <si>
-    <t>-34.5(se=4.5)</t>
+    <t>-34.4(se=4.5)</t>
   </si>
   <si>
     <t>age_no_seroreversion</t>
   </si>
   <si>
-    <t>-57.9(se=17.2)</t>
+    <t>-59(se=18.2)</t>
   </si>
   <si>
     <t>age_seroreversion</t>
@@ -85,14 +85,14 @@
     <t>-22(se=0.8)</t>
   </si>
   <si>
-    <t>1.3(95% CI, 0.68-2)</t>
+    <t>1.3(95% CI, 0.69-2.1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,27 +100,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -150,16 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,53 +435,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1">
@@ -514,7 +493,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -537,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -552,7 +531,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -567,7 +546,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -588,6 +567,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>